--- a/data/Subset1_WithDialogActs/QMT training lesson.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/QMT training lesson.xlsx_with_dialog_acts.xlsx
@@ -965,12 +965,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1117,12 +1117,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1539,12 +1539,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1695,12 +1695,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2535,12 +2535,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2653,12 +2653,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3075,12 +3075,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3683,12 +3683,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3759,12 +3759,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3797,12 +3797,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4025,12 +4025,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4291,12 +4291,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4481,12 +4481,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5241,12 +5241,12 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5507,12 +5507,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5583,12 +5583,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5811,12 +5811,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6115,12 +6115,12 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6153,12 +6153,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -6381,12 +6381,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6457,12 +6457,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6651,12 +6651,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6689,12 +6689,12 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6727,12 +6727,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6955,12 +6955,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7183,12 +7183,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7449,12 +7449,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7487,12 +7487,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7795,12 +7795,12 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7833,12 +7833,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7871,12 +7871,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7909,12 +7909,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8065,12 +8065,12 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8103,12 +8103,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8411,12 +8411,12 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8449,12 +8449,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8529,12 +8529,12 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8985,12 +8985,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9027,12 +9027,12 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9065,12 +9065,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9103,12 +9103,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9525,12 +9525,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9677,12 +9677,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9715,12 +9715,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9829,12 +9829,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9867,12 +9867,12 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9943,12 +9943,12 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10171,12 +10171,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -10779,12 +10779,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10817,12 +10817,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11315,12 +11315,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12805,12 +12805,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12843,12 +12843,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12919,12 +12919,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13231,12 +13231,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13269,12 +13269,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13615,12 +13615,12 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13961,12 +13961,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14037,12 +14037,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14189,12 +14189,12 @@
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14341,12 +14341,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14915,12 +14915,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15379,12 +15379,12 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15877,12 +15877,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15953,12 +15953,12 @@
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15991,12 +15991,12 @@
       <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16337,12 +16337,12 @@
       <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16489,12 +16489,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16641,12 +16641,12 @@
       <c r="H424" t="inlineStr"/>
       <c r="I424" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16717,12 +16717,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17667,12 +17667,12 @@
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18013,12 +18013,12 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18203,12 +18203,12 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18773,12 +18773,12 @@
       <c r="H480" t="inlineStr"/>
       <c r="I480" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18967,12 +18967,12 @@
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19005,12 +19005,12 @@
       <c r="H486" t="inlineStr"/>
       <c r="I486" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20157,12 +20157,12 @@
       <c r="H516" t="inlineStr"/>
       <c r="I516" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -20275,12 +20275,12 @@
       <c r="H519" t="inlineStr"/>
       <c r="I519" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20465,12 +20465,12 @@
       <c r="H524" t="inlineStr"/>
       <c r="I524" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20617,12 +20617,12 @@
       <c r="H528" t="inlineStr"/>
       <c r="I528" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20883,12 +20883,12 @@
       <c r="H535" t="inlineStr"/>
       <c r="I535" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21039,12 +21039,12 @@
       <c r="H539" t="inlineStr"/>
       <c r="I539" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21229,12 +21229,12 @@
       <c r="H544" t="inlineStr"/>
       <c r="I544" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21689,12 +21689,12 @@
       <c r="H556" t="inlineStr"/>
       <c r="I556" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21879,12 +21879,12 @@
       <c r="H561" t="inlineStr"/>
       <c r="I561" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21993,12 +21993,12 @@
       <c r="H564" t="inlineStr"/>
       <c r="I564" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22373,12 +22373,12 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22411,12 +22411,12 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22601,12 +22601,12 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22677,12 +22677,12 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23475,12 +23475,12 @@
       <c r="H603" t="inlineStr"/>
       <c r="I603" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23779,12 +23779,12 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23855,12 +23855,12 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23969,12 +23969,12 @@
       <c r="H616" t="inlineStr"/>
       <c r="I616" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24425,12 +24425,12 @@
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -24843,12 +24843,12 @@
       <c r="H639" t="inlineStr"/>
       <c r="I639" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J639" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25071,12 +25071,12 @@
       <c r="H645" t="inlineStr"/>
       <c r="I645" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25109,12 +25109,12 @@
       <c r="H646" t="inlineStr"/>
       <c r="I646" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25147,12 +25147,12 @@
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25185,12 +25185,12 @@
       <c r="H648" t="inlineStr"/>
       <c r="I648" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25299,12 +25299,12 @@
       <c r="H651" t="inlineStr"/>
       <c r="I651" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25489,12 +25489,12 @@
       <c r="H656" t="inlineStr"/>
       <c r="I656" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25717,12 +25717,12 @@
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25793,12 +25793,12 @@
       <c r="H664" t="inlineStr"/>
       <c r="I664" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25831,12 +25831,12 @@
       <c r="H665" t="inlineStr"/>
       <c r="I665" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26097,12 +26097,12 @@
       <c r="H672" t="inlineStr"/>
       <c r="I672" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26477,12 +26477,12 @@
       <c r="H682" t="inlineStr"/>
       <c r="I682" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26591,12 +26591,12 @@
       <c r="H685" t="inlineStr"/>
       <c r="I685" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27123,12 +27123,12 @@
       <c r="H699" t="inlineStr"/>
       <c r="I699" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27275,12 +27275,12 @@
       <c r="H703" t="inlineStr"/>
       <c r="I703" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27427,12 +27427,12 @@
       <c r="H707" t="inlineStr"/>
       <c r="I707" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27465,12 +27465,12 @@
       <c r="H708" t="inlineStr"/>
       <c r="I708" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27541,12 +27541,12 @@
       <c r="H710" t="inlineStr"/>
       <c r="I710" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27655,12 +27655,12 @@
       <c r="H713" t="inlineStr"/>
       <c r="I713" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27693,12 +27693,12 @@
       <c r="H714" t="inlineStr"/>
       <c r="I714" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J714" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27731,12 +27731,12 @@
       <c r="H715" t="inlineStr"/>
       <c r="I715" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J715" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27769,12 +27769,12 @@
       <c r="H716" t="inlineStr"/>
       <c r="I716" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27807,12 +27807,12 @@
       <c r="H717" t="inlineStr"/>
       <c r="I717" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27845,12 +27845,12 @@
       <c r="H718" t="inlineStr"/>
       <c r="I718" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J718" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27883,12 +27883,12 @@
       <c r="H719" t="inlineStr"/>
       <c r="I719" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J719" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27921,12 +27921,12 @@
       <c r="H720" t="inlineStr"/>
       <c r="I720" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J720" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28035,12 +28035,12 @@
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28073,12 +28073,12 @@
       <c r="H724" t="inlineStr"/>
       <c r="I724" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J724" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -28267,12 +28267,12 @@
       <c r="H729" t="inlineStr"/>
       <c r="I729" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28419,12 +28419,12 @@
       <c r="H733" t="inlineStr"/>
       <c r="I733" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J733" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28575,12 +28575,12 @@
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J737" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28769,12 +28769,12 @@
       <c r="H742" t="inlineStr"/>
       <c r="I742" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J742" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28845,12 +28845,12 @@
       <c r="H744" t="inlineStr"/>
       <c r="I744" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J744" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28997,12 +28997,12 @@
       <c r="H748" t="inlineStr"/>
       <c r="I748" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J748" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29035,12 +29035,12 @@
       <c r="H749" t="inlineStr"/>
       <c r="I749" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J749" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29187,12 +29187,12 @@
       <c r="H753" t="inlineStr"/>
       <c r="I753" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J753" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29533,12 +29533,12 @@
       <c r="H762" t="inlineStr"/>
       <c r="I762" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J762" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29723,12 +29723,12 @@
       <c r="H767" t="inlineStr"/>
       <c r="I767" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J767" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29837,12 +29837,12 @@
       <c r="H770" t="inlineStr"/>
       <c r="I770" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J770" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30483,12 +30483,12 @@
       <c r="H787" t="inlineStr"/>
       <c r="I787" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J787" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30559,12 +30559,12 @@
       <c r="H789" t="inlineStr"/>
       <c r="I789" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J789" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30597,12 +30597,12 @@
       <c r="H790" t="inlineStr"/>
       <c r="I790" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J790" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31091,12 +31091,12 @@
       <c r="H803" t="inlineStr"/>
       <c r="I803" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J803" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -31319,12 +31319,12 @@
       <c r="H809" t="inlineStr"/>
       <c r="I809" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J809" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -31357,12 +31357,12 @@
       <c r="H810" t="inlineStr"/>
       <c r="I810" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J810" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31547,12 +31547,12 @@
       <c r="H815" t="inlineStr"/>
       <c r="I815" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J815" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31661,12 +31661,12 @@
       <c r="H818" t="inlineStr"/>
       <c r="I818" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J818" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31813,12 +31813,12 @@
       <c r="H822" t="inlineStr"/>
       <c r="I822" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J822" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31889,12 +31889,12 @@
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J824" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31927,12 +31927,12 @@
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J825" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31965,12 +31965,12 @@
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J826" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32003,12 +32003,12 @@
       <c r="H827" t="inlineStr"/>
       <c r="I827" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J827" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32269,12 +32269,12 @@
       <c r="H834" t="inlineStr"/>
       <c r="I834" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J834" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32307,12 +32307,12 @@
       </c>
       <c r="I835" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J835" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32383,12 +32383,12 @@
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J837" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32421,12 +32421,12 @@
       </c>
       <c r="I838" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J838" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32459,12 +32459,12 @@
       </c>
       <c r="I839" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J839" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32497,12 +32497,12 @@
       </c>
       <c r="I840" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J840" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32535,12 +32535,12 @@
       </c>
       <c r="I841" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J841" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32611,12 +32611,12 @@
       </c>
       <c r="I843" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J843" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32649,12 +32649,12 @@
       </c>
       <c r="I844" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J844" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32687,12 +32687,12 @@
       </c>
       <c r="I845" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J845" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32725,12 +32725,12 @@
       </c>
       <c r="I846" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J846" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32763,12 +32763,12 @@
       <c r="H847" t="inlineStr"/>
       <c r="I847" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J847" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -32801,12 +32801,12 @@
       </c>
       <c r="I848" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J848" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33333,12 +33333,12 @@
       <c r="H862" t="inlineStr"/>
       <c r="I862" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J862" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33979,12 +33979,12 @@
       <c r="H879" t="inlineStr"/>
       <c r="I879" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J879" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34287,12 +34287,12 @@
       <c r="H887" t="inlineStr"/>
       <c r="I887" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J887" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34553,12 +34553,12 @@
       <c r="H894" t="inlineStr"/>
       <c r="I894" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J894" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -34629,12 +34629,12 @@
       </c>
       <c r="I896" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J896" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34667,12 +34667,12 @@
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J897" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34705,12 +34705,12 @@
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J898" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34743,12 +34743,12 @@
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J899" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34781,12 +34781,12 @@
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J900" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34819,12 +34819,12 @@
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J901" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34857,12 +34857,12 @@
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J902" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34895,12 +34895,12 @@
       </c>
       <c r="I903" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J903" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34933,12 +34933,12 @@
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J904" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35203,12 +35203,12 @@
       <c r="H911" t="inlineStr"/>
       <c r="I911" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J911" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35241,12 +35241,12 @@
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J912" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35469,12 +35469,12 @@
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J918" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35811,12 +35811,12 @@
       <c r="H927" t="inlineStr"/>
       <c r="I927" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J927" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35925,12 +35925,12 @@
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J930" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -36195,12 +36195,12 @@
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J937" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -36271,12 +36271,12 @@
       <c r="H939" t="inlineStr"/>
       <c r="I939" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J939" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -36613,12 +36613,12 @@
       <c r="H948" t="inlineStr"/>
       <c r="I948" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J948" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -36689,12 +36689,12 @@
       <c r="H950" t="inlineStr"/>
       <c r="I950" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J950" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -37951,12 +37951,12 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J983" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -38825,12 +38825,12 @@
       <c r="H1006" t="inlineStr"/>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1006" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
